--- a/Deliverables-Timeline-Spring.xlsx
+++ b/Deliverables-Timeline-Spring.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishvaryakorde/Desktop/HMC/NG_Clinic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishvaryakorde/Desktop/HMC/NG_Clinic/hmc-clinic-ng-2016-2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Deliverable</t>
   </si>
@@ -129,15 +129,6 @@
     <t>Final Report</t>
   </si>
   <si>
-    <t>SSE Sensor Offline Testing</t>
-  </si>
-  <si>
-    <t>SSE Hardware Testing</t>
-  </si>
-  <si>
-    <t>SSE Real-Time Testing</t>
-  </si>
-  <si>
     <t>Quadrotor Assembly</t>
   </si>
   <si>
@@ -153,10 +144,22 @@
     <t>Sensor Assembly on Quadrotor</t>
   </si>
   <si>
-    <t>Software Integration</t>
+    <t>Sensor Offline Testing</t>
   </si>
   <si>
-    <t>Software Testing</t>
+    <t xml:space="preserve">SSE ROS Integration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSE Implementation </t>
+  </si>
+  <si>
+    <t>SSE ROS Hardware Testing</t>
+  </si>
+  <si>
+    <t>Final NG Presentation</t>
+  </si>
+  <si>
+    <t>Full System Testing</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,10 +385,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -408,6 +407,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -673,9 +675,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Input!$B$4:$B$14</c:f>
+              <c:f>Input!$B$4:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Quadrotor Assembly</c:v>
                 </c:pt>
@@ -683,16 +685,16 @@
                   <c:v>Sensor and Flight Controller Integration</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SSE Sensor Offline Testing</c:v>
+                  <c:v>Sensor Offline Testing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SSE Hardware Testing</c:v>
+                  <c:v>SSE Implementation </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Software Integration</c:v>
+                  <c:v>SSE ROS Integration </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Software Testing</c:v>
+                  <c:v>SSE ROS Hardware Testing</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Spring Presentation </c:v>
@@ -701,12 +703,15 @@
                   <c:v>Sensor Assembly on Quadrotor</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SSE Real-Time Testing</c:v>
+                  <c:v>Full System Testing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Final Report</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Final NG Presentation</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Final Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -714,12 +719,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Input!$C$4:$C$14</c:f>
+              <c:f>Input!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>42714.0</c:v>
+                  <c:v>42750.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42750.0</c:v>
@@ -728,16 +733,16 @@
                   <c:v>42756.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42756.0</c:v>
+                  <c:v>42750.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42756.0</c:v>
+                  <c:v>42767.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42767.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42767.0</c:v>
+                  <c:v>42780.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>42781.0</c:v>
@@ -749,7 +754,10 @@
                   <c:v>42826.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42860.0</c:v>
+                  <c:v>42856.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42853.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,9 +789,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Input!$B$4:$B$14</c:f>
+              <c:f>Input!$B$4:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Quadrotor Assembly</c:v>
                 </c:pt>
@@ -791,16 +799,16 @@
                   <c:v>Sensor and Flight Controller Integration</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SSE Sensor Offline Testing</c:v>
+                  <c:v>Sensor Offline Testing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SSE Hardware Testing</c:v>
+                  <c:v>SSE Implementation </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Software Integration</c:v>
+                  <c:v>SSE ROS Integration </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Software Testing</c:v>
+                  <c:v>SSE ROS Hardware Testing</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Spring Presentation </c:v>
@@ -809,12 +817,15 @@
                   <c:v>Sensor Assembly on Quadrotor</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SSE Real-Time Testing</c:v>
+                  <c:v>Full System Testing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Final Report</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Final NG Presentation</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Final Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -822,42 +833,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Input!$F$4:$F$14</c:f>
+              <c:f>Input!$F$4:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,9 +903,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Input!$B$4:$B$14</c:f>
+              <c:f>Input!$B$4:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Quadrotor Assembly</c:v>
                 </c:pt>
@@ -899,16 +913,16 @@
                   <c:v>Sensor and Flight Controller Integration</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SSE Sensor Offline Testing</c:v>
+                  <c:v>Sensor Offline Testing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SSE Hardware Testing</c:v>
+                  <c:v>SSE Implementation </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Software Integration</c:v>
+                  <c:v>SSE ROS Integration </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Software Testing</c:v>
+                  <c:v>SSE ROS Hardware Testing</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Spring Presentation </c:v>
@@ -917,12 +931,15 @@
                   <c:v>Sensor Assembly on Quadrotor</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SSE Real-Time Testing</c:v>
+                  <c:v>Full System Testing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Final Report</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Final NG Presentation</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Final Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -930,41 +947,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Input!$H$4:$H$14</c:f>
+              <c:f>Input!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-42760.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.0</c:v>
+                  <c:v>-42767.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-42834.0</c:v>
+                  <c:v>-42781.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-42845.0</c:v>
+                  <c:v>-42809.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-42781.0</c:v>
+                  <c:v>-42794.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>-13.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>-42865.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>-42865.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -981,11 +1001,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2095803104"/>
-        <c:axId val="2075351104"/>
+        <c:axId val="-2102100176"/>
+        <c:axId val="-2101701952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095803104"/>
+        <c:axId val="-2102100176"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1042,7 +1062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075351104"/>
+        <c:crossAx val="-2101701952"/>
         <c:crossesAt val="42616.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,7 +1070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075351104"/>
+        <c:axId val="-2101701952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42616.0"/>
@@ -1088,7 +1108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095803104"/>
+        <c:crossAx val="-2102100176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2400,8 +2420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="GanttInput" displayName="GanttInput" ref="B3:H14" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B3:H14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="GanttInput" displayName="GanttInput" ref="B3:H15" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B3:H15">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2701,219 +2721,219 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2933,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2950,11 +2970,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -2987,65 +3007,67 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7">
-        <v>42714</v>
+        <v>42750</v>
       </c>
       <c r="D4" s="7">
-        <v>42755</v>
+        <v>42757</v>
       </c>
       <c r="E4" s="7">
         <v>42755</v>
       </c>
       <c r="F4" s="8">
         <f>D4-C4</f>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G4" s="8">
         <f>E4-C4</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H4" s="9">
         <f>G4-F4</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J4">
         <f>(AVERAGE(GanttInput[Delay]))</f>
-        <v>-19456.454545454544</v>
+        <v>-21409.416666666668</v>
       </c>
       <c r="K4" s="1">
         <f>MIN(GanttInput[Original Start])</f>
-        <v>42714</v>
+        <v>42750</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7">
         <v>42750</v>
       </c>
       <c r="D5" s="7">
-        <v>42760</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>42780</v>
+      </c>
+      <c r="E5" s="7">
+        <v>42786</v>
+      </c>
       <c r="F5" s="8">
         <f>D5-C5</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G5" s="8">
         <f>E5-C5</f>
-        <v>-42750</v>
+        <v>36</v>
       </c>
       <c r="H5" s="9">
         <f>G5-F5</f>
-        <v>-42760</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>42756</v>
@@ -3057,82 +3079,80 @@
         <v>42786</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="0">D6-C6</f>
+        <f t="shared" ref="F6" si="0">D6-C6</f>
         <v>30</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G7" si="1">E6-C6</f>
+        <f t="shared" ref="G6" si="1">E6-C6</f>
         <v>30</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ref="H6:H7" si="2">G6-F6</f>
+        <f t="shared" ref="H6" si="2">G6-F6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="11">
-        <v>42756</v>
-      </c>
-      <c r="D7" s="11">
-        <v>42786</v>
-      </c>
-      <c r="E7" s="11">
-        <v>42850</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="2"/>
-        <v>64</v>
+      <c r="B7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21">
+        <v>42750</v>
+      </c>
+      <c r="D7" s="21">
+        <v>42767</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22">
+        <f>D7-C7</f>
+        <v>17</v>
+      </c>
+      <c r="G7" s="22">
+        <f>E7-C7</f>
+        <v>-42750</v>
+      </c>
+      <c r="H7" s="22">
+        <f>G7-F7</f>
+        <v>-42767</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
-        <v>42756</v>
+        <v>42767</v>
       </c>
       <c r="D8" s="1">
-        <v>42834</v>
+        <v>42781</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8">
         <f>D8-C8</f>
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <f>E8-C8</f>
-        <v>-42756</v>
+        <v>-42767</v>
       </c>
       <c r="H8">
         <f>G8-F8</f>
-        <v>-42834</v>
+        <v>-42781</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>42767</v>
       </c>
       <c r="D9" s="1">
-        <v>42845</v>
+        <v>42809</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9">
         <f>D9-C9</f>
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <f>E9-C9</f>
@@ -3140,18 +3160,18 @@
       </c>
       <c r="H9">
         <f>G9-F9</f>
-        <v>-42845</v>
+        <v>-42809</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>42767</v>
+        <v>42780</v>
       </c>
       <c r="D10" s="1">
-        <v>42781</v>
+        <v>42794</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10">
@@ -3160,29 +3180,29 @@
       </c>
       <c r="G10">
         <f>E10-C10</f>
-        <v>-42767</v>
+        <v>-42780</v>
       </c>
       <c r="H10">
         <f>G10-F10</f>
-        <v>-42781</v>
+        <v>-42794</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>42781</v>
       </c>
       <c r="D11" s="1">
-        <v>42791</v>
+        <v>42814</v>
       </c>
       <c r="E11" s="1">
         <v>42791</v>
       </c>
       <c r="F11">
         <f>D11-C11</f>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <f>E11-C11</f>
@@ -3190,25 +3210,25 @@
       </c>
       <c r="H11">
         <f>G11-F11</f>
-        <v>0</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>42786</v>
       </c>
       <c r="D12" s="7">
-        <v>42832</v>
+        <v>42845</v>
       </c>
       <c r="E12" s="7">
         <v>42832</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="3">D12-C12</f>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" ref="G12:G13" si="4">E12-C12</f>
@@ -3216,56 +3236,80 @@
       </c>
       <c r="H12" s="9">
         <f t="shared" ref="H12:H13" si="5">G12-F12</f>
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>42826</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>42860</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>42860</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>42860</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42856</v>
+      </c>
+      <c r="D14" s="7">
         <v>42865</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8">
         <f>D14-C14</f>
-        <v>5</v>
-      </c>
-      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8">
         <f>E14-C14</f>
-        <v>-42860</v>
-      </c>
-      <c r="H14">
+        <v>-42856</v>
+      </c>
+      <c r="H14" s="9">
         <f>G14-F14</f>
+        <v>-42865</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42853</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42865</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15">
+        <f>D15-C15</f>
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <f>E15-C15</f>
+        <v>-42853</v>
+      </c>
+      <c r="H15">
+        <f>G15-F15</f>
         <v>-42865</v>
       </c>
     </row>
@@ -3286,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>

--- a/Deliverables-Timeline-Spring.xlsx
+++ b/Deliverables-Timeline-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1073,7 +1074,8 @@
         <c:axId val="-2101701952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="42616.0"/>
+          <c:max val="42875.0"/>
+          <c:min val="42747.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2953,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3311,6 +3313,23 @@
       <c r="H15">
         <f>G15-F15</f>
         <v>-42865</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>42735</v>
+      </c>
+      <c r="D19" s="23">
+        <f>C19-0</f>
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="23">
+        <v>42875</v>
+      </c>
+      <c r="D20" s="23">
+        <v>42747</v>
       </c>
     </row>
   </sheetData>
@@ -3330,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
